--- a/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,46</t>
+          <t>-1,45; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,86</t>
+          <t>-2,27; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,2</t>
+          <t>2,69; 9,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 6,01</t>
+          <t>-0,75; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,76</t>
+          <t>-1,74; 4,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,27</t>
+          <t>-0,64; 5,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,02</t>
+          <t>-0,27; 4,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,98</t>
+          <t>-1,28; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,15</t>
+          <t>1,96; 6,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 188,27</t>
+          <t>-35,78; 215,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 144,64</t>
+          <t>-53,38; 130,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,64; 409,83</t>
+          <t>48,53; 437,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 294,19</t>
+          <t>-28,09; 277,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 237,96</t>
+          <t>-40,88; 232,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 293,09</t>
+          <t>-14,4; 256,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 162,9</t>
+          <t>-6,81; 182,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 123,19</t>
+          <t>-30,35; 119,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,97; 256,94</t>
+          <t>39,24; 266,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,88</t>
+          <t>-0,1; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,44</t>
+          <t>-1,06; 4,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,5</t>
+          <t>1,3; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,32</t>
+          <t>-1,8; 5,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,56</t>
+          <t>-4,03; 1,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,32</t>
+          <t>-1,43; 5,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,52</t>
+          <t>-0,05; 4,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,4</t>
+          <t>-1,72; 2,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,38</t>
+          <t>1,14; 5,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 363,0</t>
+          <t>-12,71; 384,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 296,69</t>
+          <t>-32,43; 286,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 487,32</t>
+          <t>16,36; 549,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 186,31</t>
+          <t>-35,18; 177,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,54; 55,44</t>
+          <t>-69,66; 58,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 203,56</t>
+          <t>-20,49; 188,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 167,28</t>
+          <t>-3,6; 154,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 96,24</t>
+          <t>-37,81; 103,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 217,72</t>
+          <t>21,77; 222,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,7</t>
+          <t>-0,73; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,57</t>
+          <t>-2,27; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,0</t>
+          <t>-4,14; 7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,53</t>
+          <t>-5,36; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,66</t>
+          <t>-6,82; 6,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 10,65</t>
+          <t>-2,14; 10,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,08</t>
+          <t>-0,66; 4,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,4</t>
+          <t>-2,83; 3,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,0</t>
+          <t>-4,53; 6,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 128,59</t>
+          <t>-9,69; 117,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 79,7</t>
+          <t>-33,92; 73,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 144,47</t>
+          <t>-53,67; 139,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 127,66</t>
+          <t>-44,92; 108,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 123,47</t>
+          <t>-60,27; 114,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 215,23</t>
+          <t>-21,76; 205,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 100,58</t>
+          <t>-8,79; 95,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 67,89</t>
+          <t>-35,12; 59,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 114,18</t>
+          <t>-54,37; 116,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,22</t>
+          <t>0,59; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,09</t>
+          <t>-1,8; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,65</t>
+          <t>3,82; 8,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,31</t>
+          <t>-0,0; 5,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,21</t>
+          <t>-2,34; 3,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 55,99</t>
+          <t>1,36; 56,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,9</t>
+          <t>1,21; 4,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,87</t>
+          <t>-1,38; 1,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 39,34</t>
+          <t>3,94; 36,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,33; 101,18</t>
+          <t>8,73; 94,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 38,79</t>
+          <t>-25,63; 42,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,44; 162,49</t>
+          <t>52,61; 164,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 124,4</t>
+          <t>-0,26; 115,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 59,41</t>
+          <t>-29,85; 63,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,85; 1139,73</t>
+          <t>19,25; 1063,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,64; 87,72</t>
+          <t>17,04; 85,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 33,37</t>
+          <t>-19,56; 33,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>62,3; 649,59</t>
+          <t>59,63; 573,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,97</t>
+          <t>-3,06; 3,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,33</t>
+          <t>-4,48; 2,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,73</t>
+          <t>5,96; 15,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,97</t>
+          <t>0,2; 7,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,42</t>
+          <t>-2,81; 3,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,86</t>
+          <t>1,88; 8,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,73</t>
+          <t>-0,04; 4,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,13</t>
+          <t>-2,36; 2,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,09</t>
+          <t>4,54; 10,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 89,3</t>
+          <t>-37,95; 84,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 56,87</t>
+          <t>-51,23; 47,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>67,15; 346,15</t>
+          <t>67,44; 346,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,52; 117,79</t>
+          <t>1,93; 129,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 56,18</t>
+          <t>-30,16; 68,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,6; 144,12</t>
+          <t>21,07; 144,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 80,65</t>
+          <t>-1,45; 88,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 37,2</t>
+          <t>-28,76; 39,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>54,79; 177,76</t>
+          <t>55,44; 175,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,09</t>
+          <t>-0,48; 5,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,9</t>
+          <t>-0,0; 6,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,87</t>
+          <t>-0,64; 7,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,98</t>
+          <t>0,47; 4,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,66</t>
+          <t>-1,12; 3,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,63</t>
+          <t>6,41; 11,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,51</t>
+          <t>0,66; 4,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,45</t>
+          <t>-0,09; 3,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,66</t>
+          <t>5,12; 9,56</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 596,24</t>
+          <t>-23,68; 500,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 545,29</t>
+          <t>-18,45; 542,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 702,48</t>
+          <t>-37,06; 742,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,65; 90,14</t>
+          <t>6,44; 87,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 60,58</t>
+          <t>-15,28; 59,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>83,16; 212,42</t>
+          <t>81,87; 203,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,75; 91,65</t>
+          <t>9,53; 93,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 71,91</t>
+          <t>-3,08; 72,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>76,31; 196,95</t>
+          <t>78,72; 192,96</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,5</t>
+          <t>1,17; 3,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,71</t>
+          <t>-0,43; 1,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,04</t>
+          <t>3,04; 7,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,29</t>
+          <t>1,53; 4,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,82</t>
+          <t>-0,57; 1,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,16; 26,66</t>
+          <t>4,22; 26,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,42</t>
+          <t>1,62; 3,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,38</t>
+          <t>-0,31; 1,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,99</t>
+          <t>4,68; 16,54</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>19,84; 78,26</t>
+          <t>20,47; 80,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 40,69</t>
+          <t>-8,34; 39,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>57,85; 155,18</t>
+          <t>56,74; 154,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22,71; 76,76</t>
+          <t>22,66; 74,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 32,22</t>
+          <t>-8,41; 33,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>64,0; 451,18</t>
+          <t>66,6; 450,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>28,1; 64,89</t>
+          <t>25,44; 66,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 26,54</t>
+          <t>-5,39; 27,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>80,27; 318,86</t>
+          <t>80,72; 307,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
